--- a/Base de datos QuetzalKitchen.xlsx
+++ b/Base de datos QuetzalKitchen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Curso Hinarejos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mañanas\Documents\GitHub\quezatlkitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D89AE-4C6C-410D-BA29-0D2429586F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF84903-8948-4894-BC6C-E2C8EC45A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22BEA94D-8F95-4A74-8B3A-1A077278C2AC}"/>
   </bookViews>
@@ -34,38 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Restaurante</t>
   </si>
   <si>
-    <t>P = Pasta</t>
-  </si>
-  <si>
     <t>Alergenos</t>
   </si>
   <si>
-    <t>M = Carne</t>
-  </si>
-  <si>
-    <t>PAD = Pasta al dente</t>
-  </si>
-  <si>
-    <t>MOC = Carne muy Hecha</t>
-  </si>
-  <si>
-    <t>MUC = Carne poco hecha</t>
-  </si>
-  <si>
-    <t>SD = Refresco</t>
-  </si>
-  <si>
-    <t>V = Verduras</t>
-  </si>
-  <si>
-    <t>F = Frutas</t>
-  </si>
-  <si>
     <t>Tortilla de patatas con cebolla</t>
   </si>
   <si>
@@ -96,9 +72,6 @@
     <t>Precio_Unitario</t>
   </si>
   <si>
-    <t>Chuleta_Referencias</t>
-  </si>
-  <si>
     <t>Empresa_Envio_Propia</t>
   </si>
   <si>
@@ -111,9 +84,6 @@
     <t>1 = Verdadero</t>
   </si>
   <si>
-    <t>EA09873</t>
-  </si>
-  <si>
     <t>Hora_Llegada</t>
   </si>
   <si>
@@ -159,27 +129,9 @@
     <t>Juan Palomo</t>
   </si>
   <si>
-    <t>V2651515</t>
-  </si>
-  <si>
-    <t>MOC542528</t>
-  </si>
-  <si>
-    <t>V3285265</t>
-  </si>
-  <si>
-    <t>SD654267</t>
-  </si>
-  <si>
-    <t>SD654263</t>
-  </si>
-  <si>
     <t>Lacteos, Pescado, Soja, Sulfitos…</t>
   </si>
   <si>
-    <t>Referencia</t>
-  </si>
-  <si>
     <t>Referencia_Pedido</t>
   </si>
   <si>
@@ -204,24 +156,6 @@
     <t>Moluscos</t>
   </si>
   <si>
-    <t>PE = Pescado</t>
-  </si>
-  <si>
-    <t>PE548245</t>
-  </si>
-  <si>
-    <t>PE57484</t>
-  </si>
-  <si>
-    <t>H = Huevos</t>
-  </si>
-  <si>
-    <t>PMF57484</t>
-  </si>
-  <si>
-    <t>P345643</t>
-  </si>
-  <si>
     <t>Tarta 3 chocolates</t>
   </si>
   <si>
@@ -231,16 +165,7 @@
     <t>Gluten, moluscos, soja</t>
   </si>
   <si>
-    <t>PPEV54752</t>
-  </si>
-  <si>
     <t>Gluten, lacteos</t>
-  </si>
-  <si>
-    <t>L = Lacteos</t>
-  </si>
-  <si>
-    <t>PL879251</t>
   </si>
   <si>
     <t>Calle Pedro Coca, 43; 3C</t>
@@ -291,13 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +542,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +553,7 @@
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
     <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" customWidth="1"/>
     <col min="9" max="9" width="23.21875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -637,48 +563,44 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>10.5</v>
@@ -687,33 +609,29 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>13.95</v>
@@ -722,31 +640,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -755,29 +669,25 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>27.9</v>
@@ -786,29 +696,25 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -817,29 +723,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2.5</v>
@@ -847,27 +749,23 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -875,15 +773,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
@@ -895,9 +789,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
@@ -905,27 +797,21 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>56847</v>
@@ -933,7 +819,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B8)</f>
@@ -942,15 +828,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>68.349999999999994</v>
@@ -958,50 +844,47 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1010,24 +893,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1036,22 +917,20 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1060,22 +939,20 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>9.5</v>
@@ -1084,22 +961,20 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>3.4</v>
@@ -1108,16 +983,14 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>65824</v>
@@ -1125,7 +998,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <f>SUM(B21:B25)</f>
@@ -1134,15 +1007,15 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <f>SUM(D21:D25)</f>
@@ -1151,16 +1024,17 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:H8"/>
+  <mergeCells count="3">
     <mergeCell ref="H21:H25"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G21:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
